--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject23.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject23.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -185,13 +185,13 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>0</v>
+        <v>0.94202211866494268</v>
       </c>
       <c r="V1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.95955220516618689</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.88896679932301148</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>0</v>
+        <v>0.73207207710584266</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>0</v>
+        <v>0.59012407062111694</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.88448096998741677</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>0.95571332099419637</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0</v>
+        <v>0.75152209816690208</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.64244747310419814</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>0.86817466725000747</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -860,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0</v>
+        <v>0.68415997711940868</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="0">
         <v>0</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0</v>
+        <v>0.75276587196619937</v>
       </c>
       <c r="AR4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.76305515147283964</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.93396921510692132</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>0</v>
+        <v>0.64816968618409709</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="0">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0</v>
+        <v>0.84347879359717193</v>
       </c>
       <c r="AO5" s="0">
-        <v>0</v>
+        <v>0.66068185392881307</v>
       </c>
       <c r="AP5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.72493943982655651</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>0</v>
+        <v>0.91641898090903662</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0</v>
+        <v>0.76507527477749249</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>0</v>
+        <v>0.59188190550104713</v>
       </c>
       <c r="AP6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>0</v>
+        <v>0.51594885404832636</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.88131140300702648</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0</v>
+        <v>0.79020654709520821</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="AN7" s="0">
-        <v>0</v>
+        <v>0.55063664212926167</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="BD7" s="0">
-        <v>0</v>
+        <v>0.96461775084589385</v>
       </c>
       <c r="BE7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>0</v>
+        <v>0.8167702840987876</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>0</v>
+        <v>0.6232220905187571</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="BH8" s="0">
-        <v>0</v>
+        <v>0.7817028154797756</v>
       </c>
       <c r="BI8" s="0">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="0">
-        <v>0</v>
+        <v>0.73795826801597186</v>
       </c>
       <c r="BO8" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.62552645242119298</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.56566842657631877</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0</v>
+        <v>0.99424867758771174</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>0</v>
+        <v>0.78322518528342822</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.54716377531878424</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2069,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>1</v>
+        <v>0.57579918808560737</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
       </c>
       <c r="AH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0</v>
+        <v>0.63141274153172833</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>0</v>
+        <v>0.86930368214497478</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.88171512286065767</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2233,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>0.5658719321910799</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
       </c>
       <c r="R11" s="0">
-        <v>0</v>
+        <v>0.99941717979435918</v>
       </c>
       <c r="S11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>0.51622583514638321</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="0">
-        <v>0</v>
+        <v>0.78147516990000954</v>
       </c>
       <c r="BG11" s="0">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0</v>
+        <v>0.90061459239350561</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>0.50911683689995302</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2499,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0</v>
+        <v>0.97542171506956055</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>1</v>
+        <v>0.68274994101708986</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="0">
-        <v>0</v>
+        <v>0.87844048559718679</v>
       </c>
       <c r="BB12" s="0">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="0">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="BL12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.97492063412813057</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.88434455981931115</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0</v>
+        <v>0.86283886259741172</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="0">
-        <v>0</v>
+        <v>0.72957523222108578</v>
       </c>
       <c r="BK13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.6380967516159981</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0</v>
+        <v>0.69042418621440382</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0</v>
+        <v>0.80915094331771242</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -2926,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
       </c>
       <c r="AQ14" s="0">
-        <v>0</v>
+        <v>0.64095583688168434</v>
       </c>
       <c r="AR14" s="0">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>0</v>
+        <v>0.57763374198923678</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0</v>
+        <v>0.72842618948850502</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.91322682173115499</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0</v>
+        <v>0.99944778795196421</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>0.98722566806428325</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>0.7371151500819173</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>0.54531096181902705</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0</v>
+        <v>0.89483868384772602</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>0</v>
+        <v>0.58395185102930047</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>0.81912610983310929</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.78142242702849052</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>0</v>
+        <v>0.76801452394939229</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0</v>
+        <v>0.59928810213792505</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>0</v>
+        <v>0.77179386875315203</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0</v>
+        <v>0.85889631819489387</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0</v>
+        <v>0.52802714029906217</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>0</v>
+        <v>0.73807095101436648</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0</v>
+        <v>0.51294340895657886</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.51465468879730802</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>0</v>
+        <v>0.82303506355001721</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>0</v>
+        <v>0.72334488998935442</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -3947,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="0">
-        <v>0</v>
+        <v>0.72440095234938218</v>
       </c>
       <c r="AN19" s="0">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0</v>
+        <v>0.6445562889109262</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.73190665571107738</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0</v>
+        <v>0.88705305361861631</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AO20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="0">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0</v>
+        <v>0.92012313416971048</v>
       </c>
       <c r="AW20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0</v>
+        <v>0.67612565915500289</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>0</v>
+        <v>0.78482418141589028</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4243,12 +4243,12 @@
         <v>0</v>
       </c>
       <c r="BP20" s="0">
-        <v>0</v>
+        <v>0.64326662153465464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0</v>
+        <v>0.51616341991131187</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.89886719480029376</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0</v>
+        <v>0.83258225316644729</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.66984181982041779</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="0">
-        <v>0</v>
+        <v>0.73195424345242666</v>
       </c>
       <c r="AF22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.87031697921888929</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AT22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="0">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="0">
-        <v>0</v>
+        <v>0.52663796724498724</v>
       </c>
       <c r="AX23" s="0">
         <v>0</v>
@@ -4816,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="BA23" s="0">
-        <v>0</v>
+        <v>0.79989750167024409</v>
       </c>
       <c r="BB23" s="0">
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>0</v>
+        <v>0.9268200333648684</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0</v>
+        <v>0.56705440106061533</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0</v>
+        <v>0.85583014515503208</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.84429727529768228</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
+        <v>0.98758997948479554</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0</v>
+        <v>0.86315004877144452</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="0">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AV25" s="0">
-        <v>0</v>
+        <v>0.83562564717629884</v>
       </c>
       <c r="AW25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0</v>
+        <v>0.68496291105449403</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.66946759830411096</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.59191804423401417</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="AI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0</v>
+        <v>0.57464872333755401</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5499,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0</v>
+        <v>0.70764350079927807</v>
       </c>
       <c r="G27" s="0">
-        <v>0</v>
+        <v>0.50258181598869867</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.56185935875555548</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.56719052496838696</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5696,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.71748174314394264</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.7476389344312514</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.93017937252603744</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>0</v>
+        <v>0.9218346883534444</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0</v>
+        <v>0.74922979494080266</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>0.98913332097955475</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>0</v>
+        <v>0.90282900868435534</v>
       </c>
       <c r="U29" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="BG29" s="0">
-        <v>0</v>
+        <v>0.75024715040057688</v>
       </c>
       <c r="BH29" s="0">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>0</v>
+        <v>0.54986389210169961</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>1</v>
+        <v>0.86572850922808453</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.61801310984210267</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6225,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="AP30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="0">
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>0</v>
+        <v>0.89569848838221888</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>0</v>
+        <v>0.61674732642394936</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0</v>
+        <v>0.94059093735251609</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>0</v>
+        <v>0.61010213322760753</v>
       </c>
       <c r="BN30" s="0">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.59183357101171929</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>0</v>
+        <v>0.55683090570385074</v>
       </c>
       <c r="W31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>0</v>
+        <v>0.92772885824447093</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6485,16 +6485,16 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>0</v>
+        <v>0.65658089586253732</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6562,13 +6562,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.90766890913946607</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>0</v>
+        <v>0.99179179257844974</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.87092902317907561</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0</v>
+        <v>0.89995736917261271</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0</v>
+        <v>0.95696829979695874</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.85920850509440505</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.74323999639524274</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0</v>
+        <v>0.93228364982335965</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>0</v>
+        <v>0.82984231444441936</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>0</v>
+        <v>0.9355261263171869</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>0</v>
+        <v>0.72613828633020683</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="0">
         <v>0</v>
@@ -7222,16 +7222,16 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>0</v>
+        <v>0.56683583263909454</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.89682770003949508</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="0">
-        <v>0</v>
+        <v>0.67152600145419572</v>
       </c>
       <c r="AM35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>0</v>
+        <v>0.76699612024506014</v>
       </c>
       <c r="BN35" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0</v>
+        <v>0.64870839139791014</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>0</v>
+        <v>0.85578485128015247</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.70656080395197662</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>0</v>
+        <v>0.89824138693794731</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>0</v>
+        <v>0.77548639141734443</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0</v>
+        <v>0.70764239334581092</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.70905680460624032</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.94546383694095804</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7736,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>1</v>
+        <v>0.78568168515511583</v>
       </c>
       <c r="M38" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="0">
-        <v>0</v>
+        <v>0.58188942870406846</v>
       </c>
       <c r="AJ38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.96768652579007908</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -7959,13 +7959,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>0.57820745700480813</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
+        <v>0.78014933551683208</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="0">
-        <v>0</v>
+        <v>0.7365111348778508</v>
       </c>
       <c r="T39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.98657091074248571</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.54513837268619048</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8148,13 +8148,13 @@
         <v>0</v>
       </c>
       <c r="BM39" s="0">
-        <v>0</v>
+        <v>0.96918026281993885</v>
       </c>
       <c r="BN39" s="0">
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0</v>
+        <v>0.527397870676521</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8174,13 +8174,13 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>0.63964282471357514</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>0</v>
+        <v>0.84338332880934264</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8360,10 +8360,10 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0</v>
+        <v>0.60074722507310829</v>
       </c>
     </row>
     <row r="41">
@@ -8377,16 +8377,16 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>0</v>
+        <v>0.549914604255336</v>
       </c>
       <c r="F41" s="0">
-        <v>0</v>
+        <v>0.72677986819599649</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="0">
         <v>0</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>0</v>
+        <v>0.85872064790812785</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8661,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.6698530459206844</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>0</v>
+        <v>0.61994520508762951</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="0">
-        <v>0</v>
+        <v>0.92783887207918347</v>
       </c>
       <c r="O43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.8798326780731236</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9013,16 +9013,16 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>0.79659284106791117</v>
       </c>
       <c r="K44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="0">
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0</v>
+        <v>0.7440196047895753</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0</v>
+        <v>0.62979529671568768</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0</v>
+        <v>0.84644450409673022</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.68245683338043106</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.55990223227533598</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.93839373015009253</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.78806849554266667</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.69523314472480913</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.59589433848178319</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9584,10 +9584,10 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0</v>
+        <v>0.57390976347972156</v>
       </c>
       <c r="BL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>0</v>
+        <v>0.54421817494949631</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0</v>
+        <v>0.83718090630660091</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>0</v>
+        <v>0.9260305453496217</v>
       </c>
       <c r="U48" s="0">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>0</v>
+        <v>0.70996288593311152</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>0</v>
+        <v>0.56383828550899107</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.77341505529474541</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.50293040447707638</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>0</v>
+        <v>0.98668796334649644</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.60541070460030966</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -10061,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0</v>
+        <v>0.90172280610893873</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0">
-        <v>0</v>
+        <v>0.91025629807658781</v>
       </c>
       <c r="X49" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10163,19 +10163,19 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.68148510321386135</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.73256076574355145</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0</v>
+        <v>0.92611901543799324</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0</v>
+        <v>0.67578818850848932</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10276,13 +10276,13 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.80006285118665477</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.60491276483758827</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>0</v>
+        <v>0.76057419423465533</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10473,16 +10473,16 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>0</v>
+        <v>0.54524488584481912</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>0</v>
+        <v>0.61768370740677603</v>
       </c>
       <c r="S51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="0">
-        <v>0</v>
+        <v>0.8203217031370893</v>
       </c>
       <c r="AE51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0</v>
+        <v>0.87393206463670725</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="BL51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>0.97781445578991866</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>0</v>
+        <v>0.88926217756996984</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10715,10 +10715,10 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>0.68577063726878618</v>
       </c>
       <c r="AC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10733,13 +10733,13 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0</v>
+        <v>0.54035228608792774</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.71660127654065642</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
@@ -10793,10 +10793,10 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52" s="0">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="BH52" s="0">
-        <v>0</v>
+        <v>0.95492099384731555</v>
       </c>
       <c r="BI52" s="0">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>0</v>
+        <v>0.62034163560514044</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0</v>
+        <v>0.50186967254726444</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.50737233999866183</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.65154482823587467</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0</v>
+        <v>0.72403072719563544</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="0">
         <v>0</v>
@@ -11187,22 +11187,22 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0</v>
+        <v>0.51969604591011143</v>
       </c>
       <c r="AX54" s="0">
-        <v>0</v>
+        <v>0.78677353709325404</v>
       </c>
       <c r="AY54" s="0">
-        <v>0</v>
+        <v>0.73165517245530509</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.94249287457598885</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.70613320509323008</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>0</v>
+        <v>0.72361057969268883</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>0</v>
+        <v>0.65122371791002887</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>0</v>
+        <v>0.97390449705208981</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="0">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0">
-        <v>0</v>
+        <v>0.62305918135854355</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.70037156731163752</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.98314804398238209</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>0</v>
+        <v>0.80855040175186299</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -11715,13 +11715,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0</v>
+        <v>0.77982282446548634</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0</v>
+        <v>0.57371180570395386</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="BL57" s="0">
-        <v>0</v>
+        <v>0.8217505201764983</v>
       </c>
       <c r="BM57" s="0">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="BO57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57" s="0">
         <v>0</v>
@@ -11900,13 +11900,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="0">
-        <v>0</v>
+        <v>0.98259003407373757</v>
       </c>
       <c r="L58" s="0">
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0</v>
+        <v>0.59140862899885793</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0</v>
+        <v>0.71275505981542087</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.8566610098200651</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0">
         <v>0</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0">
-        <v>0</v>
+        <v>0.84919499031400414</v>
       </c>
       <c r="AD59" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0</v>
+        <v>0.69562338129231249</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="0">
-        <v>0</v>
+        <v>0.97331476474474521</v>
       </c>
       <c r="I60" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="0">
-        <v>0</v>
+        <v>0.63934415157685709</v>
       </c>
       <c r="BA60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.90312665591189889</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="0">
         <v>0</v>
@@ -12545,10 +12545,10 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0</v>
+        <v>0.74050477764921019</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>0.66988662353345385</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.74250497455764453</v>
       </c>
       <c r="BL61" s="0">
-        <v>0</v>
+        <v>0.67165699691526592</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>0</v>
+        <v>0.5714263869142131</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0</v>
+        <v>0.78927662136523735</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12757,19 +12757,19 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>0</v>
+        <v>0.71017466742445401</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>0.55784764816729215</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
@@ -12880,13 +12880,13 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>0</v>
+        <v>0.76022692857720364</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>0</v>
+        <v>0.58008915995080113</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.63361910903575225</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0</v>
+        <v>0.7122103602533647</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.93147600533948571</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.65411083378871204</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.93112304316550421</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13136,10 +13136,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13256,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="AY64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="0">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="BE64" s="0">
-        <v>0</v>
+        <v>0.95182001172073405</v>
       </c>
       <c r="BF64" s="0">
         <v>0</v>
@@ -13286,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0</v>
+        <v>0.50987322135218549</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.69451004686053419</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0</v>
+        <v>0.89001800549693189</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>0</v>
+        <v>0.91480056116024044</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
@@ -13411,22 +13411,22 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0</v>
+        <v>0.92864469779410141</v>
       </c>
       <c r="AI65" s="0">
-        <v>0</v>
+        <v>0.8823826863645533</v>
       </c>
       <c r="AJ65" s="0">
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>0</v>
+        <v>0.78874852187692635</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13495,10 +13495,10 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>0</v>
+        <v>0.77300045597648293</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13533,13 +13533,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>0</v>
+        <v>0.74696672407579334</v>
       </c>
       <c r="G66" s="0">
-        <v>0</v>
+        <v>0.79967055239838802</v>
       </c>
       <c r="H66" s="0">
-        <v>0</v>
+        <v>0.81197210880449244</v>
       </c>
       <c r="I66" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0</v>
+        <v>0.73448545687228251</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>0</v>
+        <v>0.71915208792526686</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>0.56726275915434843</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13832,16 +13832,16 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>0</v>
+        <v>0.9272480179187923</v>
       </c>
       <c r="AN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.87780526496398714</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13987,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>0</v>
+        <v>0.72679906446907938</v>
       </c>
       <c r="U68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0</v>
+        <v>0.83375107870872056</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject23.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject23.xlsx
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0.88448096998741677</v>
+        <v>0.93112304316550421</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0.75152209816690208</v>
+        <v>0.97781445578991866</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.64244747310419814</v>
+        <v>0.88896679932301148</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0.86817466725000747</v>
+        <v>0.98722566806428325</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0.68415997711940868</v>
+        <v>0.78014933551683208</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.72493943982655651</v>
+        <v>0.76305515147283964</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.59188190550104713</v>
+        <v>0.72677986819599649</v>
       </c>
       <c r="AP6" s="0">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>0.51594885404832636</v>
+        <v>0.74696672407579334</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.88131140300702648</v>
+        <v>0.93396921510692132</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.55063664212926167</v>
+        <v>0.84338332880934264</v>
       </c>
       <c r="AO7" s="0">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>0.6232220905187571</v>
+        <v>0.80855040175186299</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="BH8" s="0">
-        <v>0.7817028154797756</v>
+        <v>0.97331476474474521</v>
       </c>
       <c r="BI8" s="0">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="0">
-        <v>0.73795826801597186</v>
+        <v>0.81197210880449244</v>
       </c>
       <c r="BO8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.62552645242119298</v>
       </c>
       <c r="K9" s="0">
-        <v>0.56566842657631877</v>
+        <v>0.88171512286065767</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.54716377531878424</v>
+        <v>0.62552645242119298</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.57579918808560737</v>
+        <v>0.86572850922808453</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0.63141274153172833</v>
+        <v>0.79659284106791117</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>0.86930368214497478</v>
+        <v>0.89001800549693189</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0.5658719321910799</v>
+        <v>0.7371151500819173</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.51622583514638321</v>
+        <v>0.98913332097955475</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="0">
-        <v>0.78147516990000954</v>
+        <v>0.98259003407373757</v>
       </c>
       <c r="BG11" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0.50911683689995302</v>
+        <v>0.56705440106061533</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.68274994101708986</v>
+        <v>0.78568168515511583</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0.97492063412813057</v>
       </c>
       <c r="O13" s="0">
-        <v>0.88434455981931115</v>
+        <v>0.91322682173115499</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0.6380967516159981</v>
+        <v>0.97492063412813057</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.69042418621440382</v>
+        <v>0.86315004877144452</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.80915094331771242</v>
+        <v>0.93228364982335965</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="0">
-        <v>0.64095583688168434</v>
+        <v>0.92783887207918347</v>
       </c>
       <c r="AR14" s="0">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>0.57763374198923678</v>
+        <v>0.88926217756996984</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0.72842618948850502</v>
+        <v>0.91641898090903662</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0.54531096181902705</v>
+        <v>0.95696829979695874</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0.81912610983310929</v>
+        <v>0.85583014515503208</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.78142242702849052</v>
+        <v>0.90766890913946607</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>0.76801452394939229</v>
+        <v>0.84644450409673022</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.59928810213792505</v>
+        <v>0.90172280610893873</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>0.77179386875315203</v>
+        <v>0.78927662136523735</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0.85889631819489387</v>
+        <v>0.99941717979435918</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.52802714029906217</v>
+        <v>0.85578485128015247</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.51294340895657886</v>
+        <v>0.61768370740677603</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.51465468879730802</v>
+        <v>0.73190665571107738</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.82303506355001721</v>
+        <v>0.99179179257844974</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>0.72334488998935442</v>
+        <v>0.72613828633020683</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="AM19" s="0">
-        <v>0.72440095234938218</v>
+        <v>0.7365111348778508</v>
       </c>
       <c r="AN19" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.88705305361861631</v>
+        <v>0.90282900868435534</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0.92012313416971048</v>
+        <v>0.9260305453496217</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0.67612565915500289</v>
+        <v>0.77982282446548634</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4243,12 +4243,12 @@
         <v>0</v>
       </c>
       <c r="BP20" s="0">
-        <v>0.64326662153465464</v>
+        <v>0.72679906446907938</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.51616341991131187</v>
+        <v>0.94202211866494268</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.66984181982041779</v>
+        <v>0.89886719480029376</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.87031697921888929</v>
+        <v>0.98657091074248571</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="0">
-        <v>0.52663796724498724</v>
+        <v>0.91025629807658781</v>
       </c>
       <c r="AX23" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>0.98758997948479554</v>
+        <v>0.99424867758771174</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0.68496291105449403</v>
+        <v>0.99944778795196421</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.66946759830411096</v>
+        <v>0.84429727529768228</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0.57464872333755401</v>
+        <v>0.71017466742445401</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5499,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0.70764350079927807</v>
+        <v>0.76507527477749249</v>
       </c>
       <c r="G27" s="0">
-        <v>0.50258181598869867</v>
+        <v>0.79020654709520821</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.56185935875555548</v>
+        <v>0.59191804423401417</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.56719052496838696</v>
+        <v>0.7476389344312514</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0.71748174314394264</v>
+        <v>0.95571332099419637</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="BG29" s="0">
-        <v>0.75024715040057688</v>
+        <v>0.84919499031400414</v>
       </c>
       <c r="BH29" s="0">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>0.54986389210169961</v>
+        <v>0.64816968618409709</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.61801310984210267</v>
+        <v>0.93017937252603744</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>0.61674732642394936</v>
+        <v>0.8203217031370893</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>0.61010213322760753</v>
+        <v>0.91480056116024044</v>
       </c>
       <c r="BN30" s="0">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0.59183357101171929</v>
+        <v>0.73207207710584266</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>0.55683090570385074</v>
+        <v>0.73195424345242666</v>
       </c>
       <c r="W31" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.85920850509440505</v>
+        <v>0.89682770003949508</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>0.56683583263909454</v>
+        <v>0.92772885824447093</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>0.76699612024506014</v>
+        <v>0.8823826863645533</v>
       </c>
       <c r="BN35" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0.64870839139791014</v>
+        <v>0.97542171506956055</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.70656080395197662</v>
+        <v>0.70905680460624032</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.70764239334581092</v>
+        <v>0.9218346883534444</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="0">
-        <v>0.58188942870406846</v>
+        <v>0.67152600145419572</v>
       </c>
       <c r="AJ38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0.57820745700480813</v>
+        <v>0.59012407062111694</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0.527397870676521</v>
+        <v>0.9272480179187923</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0.63964282471357514</v>
+        <v>0.84347879359717193</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0.60074722507310829</v>
+        <v>0.83375107870872056</v>
       </c>
     </row>
     <row r="41">
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>0.549914604255336</v>
+        <v>0.66068185392881307</v>
       </c>
       <c r="F41" s="0">
         <v>0.72677986819599649</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>0.85872064790812785</v>
+        <v>0.89483868384772602</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.6698530459206844</v>
+        <v>0.87092902317907561</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>0.61994520508762951</v>
+        <v>0.75276587196619937</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.8798326780731236</v>
+        <v>0.93839373015009253</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0.7440196047895753</v>
+        <v>0.89569848838221888</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0.68245683338043106</v>
+        <v>0.74323999639524274</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0.55990223227533598</v>
+        <v>0.94546383694095804</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.69523314472480913</v>
+        <v>0.78806849554266667</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.59589433848178319</v>
+        <v>0.77341505529474541</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0.57390976347972156</v>
+        <v>0.7122103602533647</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>0.54421817494949631</v>
+        <v>0.73807095101436648</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0.83718090630660091</v>
+        <v>0.89824138693794731</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>0.70996288593311152</v>
+        <v>0.83562564717629884</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>0.56383828550899107</v>
+        <v>0.62979529671568768</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.50293040447707638</v>
+        <v>0.80006285118665477</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.60541070460030966</v>
+        <v>0.95955220516618689</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>0.67578818850848932</v>
+        <v>0.78322518528342822</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0.80006285118665477</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.60491276483758827</v>
+        <v>0.68148510321386135</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>0.76057419423465533</v>
+        <v>0.78677353709325404</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>0.54524488584481912</v>
+        <v>0.58395185102930047</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.68577063726878618</v>
+        <v>0.74922979494080266</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.54035228608792774</v>
+        <v>0.82984231444441936</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0.71660127654065642</v>
+        <v>0.73256076574355145</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>0.62034163560514044</v>
+        <v>0.87844048559718679</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0.50186967254726444</v>
+        <v>0.79989750167024409</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.50737233999866183</v>
+        <v>0.54513837268619048</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.65154482823587467</v>
+        <v>0.94249287457598885</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11190,13 +11190,13 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0.51969604591011143</v>
+        <v>0.92611901543799324</v>
       </c>
       <c r="AX54" s="0">
         <v>0.78677353709325404</v>
       </c>
       <c r="AY54" s="0">
-        <v>0.73165517245530509</v>
+        <v>0.87393206463670725</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>0.65122371791002887</v>
+        <v>0.9268200333648684</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>0.97390449705208981</v>
+        <v>0.98668796334649644</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0">
-        <v>0.62305918135854355</v>
+        <v>0.96461775084589385</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.70037156731163752</v>
+        <v>0.70613320509323008</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0.57371180570395386</v>
+        <v>0.94059093735251609</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="BL57" s="0">
-        <v>0.8217505201764983</v>
+        <v>0.95182001172073405</v>
       </c>
       <c r="BM57" s="0">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0.59140862899885793</v>
+        <v>0.86283886259741172</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0.71275505981542087</v>
+        <v>0.72403072719563544</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.8566610098200651</v>
+        <v>0.98314804398238209</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0.69562338129231249</v>
+        <v>0.72361057969268883</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="0">
-        <v>0.63934415157685709</v>
+        <v>0.95492099384731555</v>
       </c>
       <c r="BA60" s="0">
         <v>0</v>
@@ -12545,10 +12545,10 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0.74050477764921019</v>
+        <v>0.78482418141589028</v>
       </c>
       <c r="U61" s="0">
-        <v>0.66988662353345385</v>
+        <v>0.83258225316644729</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.74250497455764453</v>
+        <v>0.93147600533948571</v>
       </c>
       <c r="BL61" s="0">
         <v>0.67165699691526592</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>0.5714263869142131</v>
+        <v>0.72957523222108578</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.55784764816729215</v>
+        <v>0.89995736917261271</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>0.76022692857720364</v>
+        <v>0.77300045597648293</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>0.58008915995080113</v>
+        <v>0.65658089586253732</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.63361910903575225</v>
+        <v>0.96768652579007908</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.65411083378871204</v>
+        <v>0.69451004686053419</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0.50987322135218549</v>
+        <v>0.67165699691526592</v>
       </c>
       <c r="BJ64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.92864469779410141</v>
+        <v>0.9355261263171869</v>
       </c>
       <c r="AI65" s="0">
         <v>0.8823826863645533</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>0.78874852187692635</v>
+        <v>0.96918026281993885</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0.74696672407579334</v>
       </c>
       <c r="G66" s="0">
-        <v>0.79967055239838802</v>
+        <v>0.8167702840987876</v>
       </c>
       <c r="H66" s="0">
         <v>0.81197210880449244</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0.73448545687228251</v>
+        <v>0.90061459239350561</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>0.71915208792526686</v>
+        <v>0.77548639141734443</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0.56726275915434843</v>
+        <v>0.6445562889109262</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0.87780526496398714</v>
+        <v>0.90312665591189889</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
